--- a/Data/Output/datos_procesados.xlsx
+++ b/Data/Output/datos_procesados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javoo\Informatica\UiPath\RPA Advanced\EDSA-REF-AmazonBot\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SlobodanStjepovic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623BF651-517D-48C3-9F18-930A1A1140DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7416887-FBE3-4DD5-A79C-DF4E52C2C609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D7E73B9-D837-4162-B905-89A6B4D1E55B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D7E73B9-D837-4162-B905-89A6B4D1E55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +188,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Poppins"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -242,20 +234,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -272,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -418,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,13 +560,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
@@ -600,7 +589,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -790,7 +779,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -827,23 +816,11 @@
       <c r="D20" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.amazon.com/Unidapt-Adapter-Grounded-Adaptor-Converter/dp/B08D741PV6/?_encoding=UTF8&amp;pd_rd_w=jijKL&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=2C0A240NGGT8EAAY6T8W&amp;pd_rd_wg=9bQhE&amp;pd_rd_r=2c145a53-a3ce-40e4-9153-dd68bc9aa91d&amp;ref_=pd_gw_exports_top_sellers_unrec&amp;language=es_US&amp;currency=CLP" xr:uid="{4D788883-6EAF-42E8-91AD-D8FCE44263E8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CA0E3DACDB7CC04CB4734A5E569A02CF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6604502ae65d38469308e53a01b158ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1d68908-3a30-4c88-a1e7-bbb6c97e1db3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb26051f141f304dd02f4f8060b3333c" ns2:_="">
     <xsd:import namespace="c1d68908-3a30-4c88-a1e7-bbb6c97e1db3"/>
@@ -987,6 +964,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -994,36 +980,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1A26DB9-E9E5-4CB9-8B1E-7A58918B9BF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3D09FF-2C68-4890-B24B-648C8F10DEB7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3D09FF-2C68-4890-B24B-648C8F10DEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1d68908-3a30-4c88-a1e7-bbb6c97e1db3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1A26DB9-E9E5-4CB9-8B1E-7A58918B9BF8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5772DD3D-C3D0-469C-8E6B-C6264637122C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5772DD3D-C3D0-469C-8E6B-C6264637122C}"/>
 </file>
--- a/Data/Output/datos_procesados.xlsx
+++ b/Data/Output/datos_procesados.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>Nombre</x:t>
   </x:si>
@@ -57,7 +57,7 @@
     <x:t>https://www.amazon.com/Unidapt-Adapter-Grounded-Adaptor-Converter/dp/B08D741PV6/?_encoding=UTF8&amp;pd_rd_w=jijKL&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=2C0A240NGGT8EAAY6T8W&amp;pd_rd_wg=9bQhE&amp;pd_rd_r=2c145a53-a3ce-40e4-9153-dd68bc9aa91d&amp;ref_=pd_gw_exports_top_sellers_unrec&amp;language=es_US&amp;currency=CLP</x:t>
   </x:si>
   <x:si>
-    <x:t>7,615</x:t>
+    <x:t>7,487</x:t>
   </x:si>
   <x:si>
     <x:t>Si</x:t>
@@ -69,7 +69,7 @@
     <x:t>https://www.amazon.com/-/es/SAMSUNG-adaptador-microSDXC-MB-ME256KA-AM/dp/B09B1GXM16/?_encoding=UTF8&amp;pd_rd_w=AwyqZ&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=2EKX99B49VGGRQT8FTMG&amp;pd_rd_wg=Ubz32&amp;pd_rd_r=33df8239-3efa-425c-a17c-d80ff98a173b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
-    <x:t>19,053</x:t>
+    <x:t>18,733</x:t>
   </x:si>
   <x:si>
     <x:t>KSIPZE Tira de luces LED de 100 pies</x:t>
@@ -78,7 +78,7 @@
     <x:t>https://www.amazon.com/-/es/sincronizaci%C3%B3n-aplicaci%C3%B3n-inteligente-dormitorio-iluminaci%C3%B3n/dp/B09V366BDY/ref=sr_1_5?_encoding=UTF8&amp;content-id=amzn1.sym.7738c60e-a1c7-4678-9812-5d82959d511c&amp;keywords=strip+lighting&amp;pd_rd_r=a61aa239-6f17-4b90-b50e-30ac73d896ec&amp;pd_rd_w=GCgMp&amp;pd_rd_wg=8Tbic&amp;pf_rd_p=7738c60e-a1c7-4678-9812-5d82959d511c&amp;pf_rd_r=WXPCKCN6VR02D770X6QB&amp;qid=1691511023&amp;sr=8-5</x:t>
   </x:si>
   <x:si>
-    <x:t>9,522</x:t>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
   <x:si>
     <x:t>Black &amp; Decker Horno tostador</x:t>
@@ -87,39 +87,24 @@
     <x:t>https://www.amazon.com/Black-Decker-Horno-tostador-Posiciones/dp/B0043E6PLC/ref=sr_1_2_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=294JUCGTJ8SVX&amp;keywords=oven&amp;qid=1691511097&amp;sprefix=ov%2Caps%2C210&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>86,857</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
-  </x:si>
-  <x:si>
     <x:t>XFX Speedster SWFT 210 Radeon RX 6600 CORE</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/-/es/Speedster-SWFT-Radeon-6600-CORE/dp/B09HHLX543/?_encoding=UTF8&amp;pd_rd_w=NQ3Jj&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=H7T3R6A6NRXSEGA806SJ&amp;pd_rd_wg=VsEIi&amp;pd_rd_r=8e02ff95-d2c0-4b6f-a03f-3c0e37c5d72b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
-    <x:t>196,903</x:t>
-  </x:si>
-  <x:si>
     <x:t>Flopping Fish</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Flopping-Fish-interactivo-movimiento-aburrimiento/dp/B085YFH3MH/ref=sr_1_4_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=31VKK32KHBVT2&amp;keywords=cat+nip&amp;qid=1691524900&amp;sprefix=cat+nip%2Caps%2C236&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
     <x:t>Classical Piano Sheet Music</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Masterworks-Publishing/dp/B09XDKH164/ref=sr_1_4_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=LP1VB31Z5UX5&amp;keywords=sheet+music&amp;qid=1691524986&amp;sprefix=sheet+musi%2Caps%2C205&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>Details</x:t>
-  </x:si>
-  <x:si>
     <x:t>Mueller 7-inch Meat Cleaver Knife</x:t>
   </x:si>
   <x:si>
@@ -132,36 +117,24 @@
     <x:t>https://www.amazon.com/Utopia-Towels-Premium-Grey-Hand/dp/B083KKF8F8/ref=sr_1_1_sspa?crid=1KDZABCENUGOT&amp;keywords=hand%2Btowel&amp;qid=1691525294&amp;sprefix=hand%2Btowe%2Caps%2C290&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>20,959</x:t>
-  </x:si>
-  <x:si>
     <x:t>Amazon Basics Neoprene Workout Dumbbell</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/AmazonBasics-Pound-Neoprene-Dumbbells-Weights/dp/B01LR5RO5U/ref=sxin_15_pa_sp_search_thematic_sspa?content-id=amzn1.sym.abea0cd6-ddf4-4d67-9781-9599c1d665fc%3Aamzn1.sym.abea0cd6-ddf4-4d67-9781-9599c1d665fc&amp;crid=D36RJAA1OIUT&amp;cv_ct_cx=dumbbell&amp;keywords=dumbbell&amp;pd_rd_i=B01LR5RO5U&amp;pd_rd_r=b59ff95a-4508-49c9-9897-dad754d12d9d&amp;pd_rd_w=rGjeG&amp;pd_rd_wg=ftPht&amp;pf_rd_p=abea0cd6-ddf4-4d67-9781-9599c1d665fc&amp;pf_rd_r=QBR7AM504SS6NY909P4K&amp;qid=1691525363&amp;sbo=EO%2BcdOgoisx3waG5xqcZQA%3D%3D&amp;sprefix=dumbe%2Caps%2C209&amp;sr=1-4-0cc546a2-7bf2-4d0e-b4ad-0f0d9092fdfc-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>14,506</x:t>
-  </x:si>
-  <x:si>
     <x:t>Google Pixel 7a</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Google-Pixel-7a-Unlocked-Smartphone/dp/B0BZ9T8R41/ref=sr_1_1_sspa?crid=2PWFCK2DVYVOQ&amp;keywords=nothing%2Bphone&amp;qid=1691525818&amp;sprefix=nothing%2Bpho%2Caps%2C266&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>455,587</x:t>
-  </x:si>
-  <x:si>
     <x:t>Flameless LED Tea Light Candles</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Flameless-Vivii-Battery-powered-Unscented-Tealights/dp/B01MQ1Q3R1/?_encoding=UTF8&amp;pd_rd_w=uLS6o&amp;content-id=amzn1.sym.223027c6-8030-47e4-a6f7-fd0fd07387a6&amp;pf_rd_p=223027c6-8030-47e4-a6f7-fd0fd07387a6&amp;pf_rd_r=WS4CNQY63AAD8M4BYCGF&amp;pd_rd_wg=d5aW3&amp;pd_rd_r=98bf7399-ae8f-4dcd-b8b0-666649e2a0fc&amp;ref_=pd_gw_unk</x:t>
   </x:si>
   <x:si>
-    <x:t>12,381</x:t>
-  </x:si>
-  <x:si>
     <x:t>S*MAX Gaming Chair</x:t>
   </x:si>
   <x:si>
@@ -174,52 +147,34 @@
     <x:t>https://www.amazon.com/THERMOS-FUNTAINER-Ounce-Stainless-Steel/dp/B08NCVT244/?_encoding=UTF8&amp;pd_rd_w=mt2Uz&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=V6B2WJ56S9ZNKER7M4XC&amp;pd_rd_wg=bW0kF&amp;pd_rd_r=39e09029-a613-414c-b146-91b724c083f6&amp;ref_=pd_gw_exports_top_sellers_unrec&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>19,043</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hoppy The Bunny</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Westminster-SG_B01D0JLWVS_US-Hoppy-Mechanical-Bunny/dp/B01D0JLWVS/?_encoding=UTF8&amp;pd_rd_w=nr0zp&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=MDE7HD64PQJ567XNG0AN&amp;pd_rd_wg=c2YVK&amp;pd_rd_r=a11c1dd4-e1b0-4b95-8f14-c0394d94c9ad&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
-    <x:t>14,535</x:t>
-  </x:si>
-  <x:si>
     <x:t>MRbrew</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/MRbrew-American-System-Picnic-Chrome-Plated/dp/B07YV341NZ/ref=sr_1_5?crid=2HBGCH5YN2KYS&amp;keywords=party+pump&amp;qid=1691528197&amp;sprefix=party+pum%2Caps%2C215&amp;sr=8-5</x:t>
   </x:si>
   <x:si>
-    <x:t>47,646</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pokemon - Charizard - XY Evo</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Pokemon-Charizard-108-Evolutions-Holo/dp/B01M4QJUOL/ref=sr_1_4?crid=H03KFBNOM58D&amp;keywords=charizard+card&amp;qid=1691528233&amp;sprefix=charizard+ca%2Caps%2C203&amp;sr=8-4</x:t>
   </x:si>
   <x:si>
-    <x:t>79,089</x:t>
-  </x:si>
-  <x:si>
     <x:t>Cinderace Vmax</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Cinderace-Vmax-Rebel-Clash-Pokemon/dp/B09T32S5LP/ref=sr_1_1?crid=SY440FCJZJ2D&amp;keywords=cinderace+vmax&amp;qid=1691528305&amp;sprefix=cinderance+vma%2Caps%2C199&amp;sr=8-1</x:t>
   </x:si>
   <x:si>
-    <x:t>10,008</x:t>
-  </x:si>
-  <x:si>
     <x:t>Officemate Letter Size Wall File</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Officemate-26092-Letter-Recycled-Black/dp/B003G4MNUW/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_59c541b0_dt&amp;pd_rd_w=jLN8Q&amp;content-id=amzn1.sym.81a68cec-8afc-4296-99f7-78cf5ddc15b5&amp;pf_rd_p=81a68cec-8afc-4296-99f7-78cf5ddc15b5&amp;pf_rd_r=2QVJ5A934TS0CZGC7TJR&amp;pd_rd_wg=qJq5x&amp;pd_rd_r=91a44954-47ba-4559-9e57-788901623031&amp;ref_=pd_gw_unk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,243</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -718,9 +673,7 @@
       <x:c r="C4" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D4" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D4" s="6" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A5" s="6" t="s">
@@ -730,221 +683,191 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="6" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A6" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D6" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A7" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D7" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A8" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A9" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D9" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A10" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A11" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D11" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s"/>
     </x:row>
     <x:row r="12" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A12" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D12" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s"/>
     </x:row>
     <x:row r="13" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A13" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B13" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C13" s="6" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D13" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D13" s="8" t="s"/>
     </x:row>
     <x:row r="14" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A14" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B14" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D14" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D14" s="8" t="s"/>
     </x:row>
     <x:row r="15" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A15" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B15" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C15" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D15" s="8" t="s"/>
     </x:row>
     <x:row r="16" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A16" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D16" s="8" t="s"/>
     </x:row>
     <x:row r="17" spans="1:6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <x:c r="A17" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C17" s="6" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D17" s="8" t="s"/>
     </x:row>
     <x:row r="18" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A18" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B18" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C18" s="6" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D18" s="8" t="s"/>
     </x:row>
     <x:row r="19" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C19" s="6" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D19" s="8" t="s"/>
     </x:row>
     <x:row r="20" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A20" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D20" s="8" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
